--- a/statistiche/XGBoostClassificationReport.xlsx
+++ b/statistiche/XGBoostClassificationReport.xlsx
@@ -467,19 +467,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8584518167456556</v>
+        <v>0.8646209386281588</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1389380530973451</v>
+        <v>0.142767492940069</v>
       </c>
       <c r="D2" t="n">
-        <v>0.669150174621653</v>
+        <v>0.3289871944121071</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4986949349215004</v>
+        <v>0.5036942157841139</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7571000525996188</v>
+        <v>0.762939603438102</v>
       </c>
     </row>
     <row r="3">
@@ -489,19 +489,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7363143631436314</v>
+        <v>0.2596205962059621</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2595041322314049</v>
+        <v>0.7520661157024794</v>
       </c>
       <c r="D3" t="n">
-        <v>0.669150174621653</v>
+        <v>0.3289871944121071</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4979092476875182</v>
+        <v>0.5058433559542207</v>
       </c>
       <c r="F3" t="n">
-        <v>0.669150174621653</v>
+        <v>0.3289871944121071</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +511,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7927060539752006</v>
+        <v>0.3993330554397665</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1809798270893372</v>
+        <v>0.2399789029535865</v>
       </c>
       <c r="D4" t="n">
-        <v>0.669150174621653</v>
+        <v>0.3289871944121071</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4868429405322688</v>
+        <v>0.3196559791966765</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7065374003626401</v>
+        <v>0.3768861957764048</v>
       </c>
     </row>
     <row r="5">
@@ -539,7 +539,7 @@
         <v>605</v>
       </c>
       <c r="D5" t="n">
-        <v>0.669150174621653</v>
+        <v>0.3289871944121071</v>
       </c>
       <c r="E5" t="n">
         <v>4295</v>

--- a/statistiche/XGBoostClassificationReport.xlsx
+++ b/statistiche/XGBoostClassificationReport.xlsx
@@ -467,19 +467,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8646209386281588</v>
+        <v>0.822116080474743</v>
       </c>
       <c r="C2" t="n">
-        <v>0.142767492940069</v>
+        <v>0.6026561052268227</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3289871944121071</v>
+        <v>0.6271306818181818</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5036942157841139</v>
+        <v>0.7123860928507828</v>
       </c>
       <c r="F2" t="n">
-        <v>0.762939603438102</v>
+        <v>0.7002533059314885</v>
       </c>
     </row>
     <row r="3">
@@ -489,19 +489,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2596205962059621</v>
+        <v>0.206163115676382</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7520661157024794</v>
+        <v>0.9642742943519084</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3289871944121071</v>
+        <v>0.6271306818181818</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5058433559542207</v>
+        <v>0.5852187050141452</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3289871944121071</v>
+        <v>0.6271306818181818</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +511,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3993330554397665</v>
+        <v>0.3296575739988392</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2399789029535865</v>
+        <v>0.7417378471445821</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3289871944121071</v>
+        <v>0.6271306818181818</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3196559791966765</v>
+        <v>0.5356977105717107</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3768861957764048</v>
+        <v>0.5584794599183689</v>
       </c>
     </row>
     <row r="5">
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3690</v>
+        <v>27551</v>
       </c>
       <c r="C5" t="n">
-        <v>605</v>
+        <v>34401</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3289871944121071</v>
+        <v>0.6271306818181818</v>
       </c>
       <c r="E5" t="n">
-        <v>4295</v>
+        <v>61952</v>
       </c>
       <c r="F5" t="n">
-        <v>4295</v>
+        <v>61952</v>
       </c>
     </row>
   </sheetData>

--- a/statistiche/XGBoostClassificationReport.xlsx
+++ b/statistiche/XGBoostClassificationReport.xlsx
@@ -467,19 +467,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.822116080474743</v>
+        <v>0.8214027476500362</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6026561052268227</v>
+        <v>0.6026127877609608</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6271306818181818</v>
+        <v>0.6270338326446281</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7123860928507828</v>
+        <v>0.7120077677054986</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7002533059314885</v>
+        <v>0.6999120224088159</v>
       </c>
     </row>
     <row r="3">
@@ -492,16 +492,16 @@
         <v>0.206163115676382</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9642742943519084</v>
+        <v>0.9640998808174182</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6271306818181818</v>
+        <v>0.6270338326446281</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5852187050141452</v>
+        <v>0.5851314982469</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6271306818181818</v>
+        <v>0.6270338326446281</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +511,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3296575739988392</v>
+        <v>0.3296001856902455</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7417378471445821</v>
+        <v>0.7416534358997294</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6271306818181818</v>
+        <v>0.6270338326446281</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5356977105717107</v>
+        <v>0.5356268107949874</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5584794599183689</v>
+        <v>0.5584070661857332</v>
       </c>
     </row>
     <row r="5">
@@ -539,7 +539,7 @@
         <v>34401</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6271306818181818</v>
+        <v>0.6270338326446281</v>
       </c>
       <c r="E5" t="n">
         <v>61952</v>
